--- a/Pandas/write/Expenses01.xlsx
+++ b/Pandas/write/Expenses01.xlsx
@@ -11,6 +11,14 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Ankit</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,7 +544,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
